--- a/Excel praticise/school/excel praticise.xlsx
+++ b/Excel praticise/school/excel praticise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrymiessan/Documents/Excel praticise/school/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrymiessan/Desktop/Excel lesson/Excel praticise/school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC1610F-87AE-FD4F-B62C-109528CC340E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA91E35E-EA79-6C4B-ACEF-77F8CC020D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13760" xr2:uid="{DB3CF680-0876-FA4C-92A0-080B113ADAC5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Students Report</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Avrerage_function</t>
+  </si>
+  <si>
+    <t>Teacher's Remarks</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Headmaster's Remarks</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,12 +213,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +239,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60 % - Accent2" xfId="1" builtinId="36"/>
@@ -534,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD41725-3371-3C41-AB3D-F354BE8677F5}">
-  <dimension ref="E1:M8"/>
+  <dimension ref="E1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,14 +572,17 @@
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:13" ht="31" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="5:16" ht="31" x14ac:dyDescent="0.55000000000000004">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:16" ht="21" x14ac:dyDescent="0.25">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -583,8 +610,17 @@
       <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="N3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="5:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:16" ht="19" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
@@ -614,8 +650,12 @@
         <f>SUM(I4:J4:K4)/3</f>
         <v>0.77</v>
       </c>
+      <c r="N4" s="6" t="str">
+        <f>IF(I4&gt;70,"passed","false")</f>
+        <v>false</v>
+      </c>
     </row>
-    <row r="5" spans="5:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:16" ht="19" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
@@ -645,8 +685,12 @@
         <f>SUM(I5:J5:K5)/3</f>
         <v>0.76666666666666661</v>
       </c>
+      <c r="N5" s="6" t="str">
+        <f t="shared" ref="N5:N8" si="1">IF(I5&gt;70,"passed","false")</f>
+        <v>false</v>
+      </c>
     </row>
-    <row r="6" spans="5:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:16" ht="19" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
@@ -676,8 +720,12 @@
         <f>SUM(I6:J6:K6)/3</f>
         <v>0.82666666666666666</v>
       </c>
+      <c r="N6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
     </row>
-    <row r="7" spans="5:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:16" ht="19" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
@@ -707,8 +755,12 @@
         <f>SUM(I7:J7:K7)/3</f>
         <v>0.76000000000000012</v>
       </c>
+      <c r="N7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
+      </c>
     </row>
-    <row r="8" spans="5:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:16" ht="19" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
@@ -737,6 +789,10 @@
       <c r="M8" s="4">
         <f>SUM(I8:J8:K8)/3</f>
         <v>0.86333333333333329</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
